--- a/output/correlation_matrix_colored.xlsx
+++ b/output/correlation_matrix_colored.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DEBC8D-5731-46E0-8CD7-67FEB7EFA3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation_matrix" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,19 +895,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0.16299042456614499</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>-0.17928326201608799</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>-0.23628447878770001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1.10625233441497E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>-5.1252108059674298E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0.16520448494385101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>-0.221808070481162</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6.8483617199301794E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>-2.4814694116290201E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0.88718252992611202</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
